--- a/PDFs/Señales de control.xlsx
+++ b/PDFs/Señales de control.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Señales de control" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>Execution</t>
   </si>
@@ -42,9 +40,6 @@
     <t>MemRd</t>
   </si>
   <si>
-    <t>PCSrc</t>
-  </si>
-  <si>
     <t>Branch</t>
   </si>
   <si>
@@ -60,9 +55,6 @@
     <t>Bit en señal de control</t>
   </si>
   <si>
-    <t>2-5</t>
-  </si>
-  <si>
     <t>Número de bits</t>
   </si>
   <si>
@@ -135,9 +127,6 @@
     <t>0-Operación con registro, 1-Operación con entero</t>
   </si>
   <si>
-    <t>0-Operación, 1-Load</t>
-  </si>
-  <si>
     <t>MOVT</t>
   </si>
   <si>
@@ -154,6 +143,21 @@
   </si>
   <si>
     <t>1-Lectura de memoria, 0-En otro caso</t>
+  </si>
+  <si>
+    <t>Decode</t>
+  </si>
+  <si>
+    <t>0-Load, 1 - E.o.c</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>RegWrite</t>
+  </si>
+  <si>
+    <t>RegSrc</t>
   </si>
 </sst>
 </file>
@@ -267,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -294,6 +298,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,340 +595,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:K27"/>
+  <dimension ref="C5:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="7"/>
+    <col min="6" max="6" width="45.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11" ht="15.75" thickBot="1"/>
-    <row r="4" spans="3:11" ht="15.75" thickBot="1">
-      <c r="C4" s="2" t="s">
+    <row r="5" spans="3:8">
+      <c r="C5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" ht="15.75" thickBot="1"/>
+    <row r="11" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="J4" s="12" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="G12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="3:11">
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="G15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="C16" s="4"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="G16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="4"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="G17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="4"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="G18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C19" s="4"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="G19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11">
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="H19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11">
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11">
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11">
-      <c r="C9" s="4"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="J9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11">
-      <c r="C10" s="4"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="J10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11">
-      <c r="C11" s="4"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="J11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11" ht="15.75" thickBot="1">
-      <c r="C12" s="4"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="J12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11">
-      <c r="C13" s="4"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="3:11">
-      <c r="C14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="3:11">
-      <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11">
-      <c r="C16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="C17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6">
-      <c r="C18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6">
-      <c r="C19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6">
+    </row>
+    <row r="20" spans="3:8">
       <c r="C20" s="4"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="3:6">
-      <c r="C21" s="4"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="3:6">
-      <c r="C22" s="4"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="3:6">
-      <c r="C23" s="4"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="3:6">
-      <c r="C24" s="2" t="s">
+    <row r="21" spans="3:8">
+      <c r="C21" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="4"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="4"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="C29" s="4"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="4"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="3:8">
+      <c r="C31" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="3:6">
-      <c r="C25" s="4" t="s">
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="F32" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6">
-      <c r="C26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="1">
         <v>1</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6">
-      <c r="C27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="F33" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="1">
         <v>1</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>45</v>
+      <c r="F34" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C4:F4"/>
+  <mergeCells count="4">
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/PDFs/Señales de control.xlsx
+++ b/PDFs/Señales de control.xlsx
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C5:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -710,7 +710,7 @@
         <v>36</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>27</v>
@@ -730,7 +730,7 @@
         <v>39</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>28</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="15" spans="3:8">
       <c r="G15" s="8" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>29</v>
@@ -749,7 +749,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="G16" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>30</v>
@@ -771,7 +771,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="G18" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>32</v>
@@ -782,7 +782,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="G19" s="10" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>38</v>

--- a/PDFs/Señales de control.xlsx
+++ b/PDFs/Señales de control.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>Execution</t>
   </si>
@@ -40,9 +40,6 @@
     <t>MemRd</t>
   </si>
   <si>
-    <t>Branch</t>
-  </si>
-  <si>
     <t>BranchFlags</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>Número de bits</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>3-</t>
-  </si>
-  <si>
     <t>ADD</t>
   </si>
   <si>
@@ -151,13 +142,34 @@
     <t>0-Load, 1 - E.o.c</t>
   </si>
   <si>
-    <t>1-4</t>
-  </si>
-  <si>
     <t>RegWrite</t>
   </si>
   <si>
     <t>RegSrc</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>Branch Incondicional</t>
+  </si>
+  <si>
+    <t>Branch Condicional</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>1-Salto Incondicional, 0-En otro caso</t>
+  </si>
+  <si>
+    <t>1-Salto condicional, 0-En otro caso</t>
+  </si>
+  <si>
+    <t>Condiciones para salto condicional: 5=Negativo, 4=Zero</t>
   </si>
 </sst>
 </file>
@@ -271,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -298,6 +310,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -595,15 +610,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:H34"/>
+  <dimension ref="C5:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
@@ -612,136 +628,136 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:8">
-      <c r="C5" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="C5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="3:8">
       <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="3:8">
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="3:8">
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="3:8" ht="15.75" thickBot="1"/>
     <row r="11" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="3:8">
       <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="3:8">
-      <c r="C13" s="4">
-        <v>0</v>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
         <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8">
-      <c r="C14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="3:8">
       <c r="G15" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="3:8">
@@ -749,10 +765,10 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="G16" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="3:8">
@@ -760,10 +776,10 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="G17" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="3:8">
@@ -771,10 +787,10 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="G18" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="15.75" thickBot="1">
@@ -782,10 +798,10 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="G19" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="3:8">
@@ -794,84 +810,96 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="3:8">
       <c r="C22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
+      <c r="C23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="3:8">
       <c r="C24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="3:8">
       <c r="C25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="1">
+        <v>15</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="14">
         <v>1</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="4"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="C27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="28" spans="3:8">
       <c r="C28" s="4"/>
@@ -889,58 +917,63 @@
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="4"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="3:8">
-      <c r="C32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="C34" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>42</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C5:F5"/>

--- a/PDFs/Señales de control.xlsx
+++ b/PDFs/Señales de control.xlsx
@@ -130,9 +130,6 @@
     <t>1-Escritura en memoria, 0-En otro caso</t>
   </si>
   <si>
-    <t>1-Salto, 0-En otro caso</t>
-  </si>
-  <si>
     <t>1-Lectura de memoria, 0-En otro caso</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>Condiciones para salto condicional: 5=Negativo, 4=Zero</t>
+  </si>
+  <si>
+    <t>1-Escritura en registro, 0-En otro caso</t>
   </si>
 </sst>
 </file>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C5:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="C23:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -629,7 +629,7 @@
   <sheetData>
     <row r="5" spans="3:8">
       <c r="C5" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -660,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="3:8">
@@ -668,13 +668,13 @@
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="3:8" ht="15.75" thickBot="1"/>
@@ -714,7 +714,7 @@
     </row>
     <row r="13" spans="3:8">
       <c r="C13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="23" spans="3:8">
       <c r="C23" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>8</v>
@@ -842,21 +842,21 @@
         <v>2</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="3:8">
       <c r="C24" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="3:8">
@@ -864,13 +864,13 @@
         <v>15</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" s="14">
         <v>1</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="3:8">
@@ -884,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="3:8">
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="3:6">
@@ -962,13 +962,13 @@
         <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/PDFs/Señales de control.xlsx
+++ b/PDFs/Señales de control.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>Execution</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>1-Escritura en registro, 0-En otro caso</t>
+  </si>
+  <si>
+    <t>Supuesto: bits de instrucción 21 y 20 como negativo y zero respectivamente</t>
   </si>
 </sst>
 </file>
@@ -612,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C5:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="C23:E23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -844,6 +847,9 @@
       <c r="F23" s="7" t="s">
         <v>50</v>
       </c>
+      <c r="G23" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="24" spans="3:8">
       <c r="C24" s="4" t="s">
